--- a/config/NTDS_Template_allowed_input.xlsx
+++ b/config/NTDS_Template_allowed_input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13200" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="14400" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Latin verplicht blind daten</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>Slaapplek</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Nr. Latin partner</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t>Slaapzaal/Eigen plek</t>
+  </si>
+  <si>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,16 +504,16 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -525,16 +525,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -543,155 +543,155 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
